--- a/apitest_for_lyancoffee/api_case_the_third.xlsx
+++ b/apitest_for_lyancoffee/api_case_the_third.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,17 @@
   </si>
   <si>
     <t>providerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正向</t>
+  </si>
+  <si>
+    <t>正向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,17 +217,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10.5"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -290,7 +320,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -306,25 +336,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -622,12 +670,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -635,17 +683,18 @@
     <col min="1" max="1" width="23.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="52.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="12.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="16.875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="12.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,308 +704,341 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" ht="27">
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="27">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="D2" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="40.5">
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="40.5">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" ht="40.5">
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="40.5">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="7">
+      <c r="D4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="6">
         <v>12</v>
       </c>
-      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="40.5">
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="40.5">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="7">
+      <c r="D5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="6">
         <v>12</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="175.5">
-      <c r="A6" s="7" t="s">
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="175.5">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="D6" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" ht="27">
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" ht="27">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="D7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>12</v>
       </c>
-      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" ht="202.5">
-      <c r="A8" s="7" t="s">
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="202.5">
+      <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="D8" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>0</v>
       </c>
-      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" ht="27">
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="27">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="D9" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="6">
+      <c r="I9" s="1"/>
+      <c r="J9" s="5">
         <v>51559</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="27">
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="27">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="D10" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="6">
+      <c r="I10" s="1"/>
+      <c r="J10" s="5">
         <v>52038</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
         <v>0</v>
       </c>
-      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="189" customHeight="1">
-      <c r="A11" s="11" t="s">
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="189" customHeight="1">
+      <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="D11" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="9"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -966,12 +1048,12 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -981,12 +1063,12 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -996,12 +1078,12 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1011,12 +1093,12 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1"/>
       <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1026,12 +1108,12 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1041,12 +1123,12 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1056,12 +1138,12 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1071,12 +1153,12 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1086,12 +1168,12 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1101,12 +1183,12 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1116,12 +1198,12 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1131,12 +1213,12 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1146,12 +1228,12 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1161,12 +1243,12 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1176,12 +1258,12 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1191,19 +1273,12 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
-    <hyperlink ref="C8" r:id="rId2"/>
-    <hyperlink ref="C10" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="C5" r:id="rId5"/>
-    <hyperlink ref="C3" r:id="rId6"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
